--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H2">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I2">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J2">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>2675.881532959424</v>
+        <v>3766.732525969679</v>
       </c>
       <c r="R2">
-        <v>2675.881532959424</v>
+        <v>33900.59273372711</v>
       </c>
       <c r="S2">
-        <v>0.1331898441515299</v>
+        <v>0.1598530577030708</v>
       </c>
       <c r="T2">
-        <v>0.1331898441515299</v>
+        <v>0.1598530577030708</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H3">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I3">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J3">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>2692.588143074394</v>
+        <v>3559.204375096056</v>
       </c>
       <c r="R3">
-        <v>2692.588143074394</v>
+        <v>32032.83937586451</v>
       </c>
       <c r="S3">
-        <v>0.1340214021895467</v>
+        <v>0.1510459525402021</v>
       </c>
       <c r="T3">
-        <v>0.1340214021895467</v>
+        <v>0.1510459525402021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.359788939687</v>
+        <v>33.47808166666666</v>
       </c>
       <c r="H4">
-        <v>25.359788939687</v>
+        <v>100.434245</v>
       </c>
       <c r="I4">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="J4">
-        <v>0.4235607465901017</v>
+        <v>0.4880542983452505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>3141.175988822534</v>
+        <v>4174.437420401186</v>
       </c>
       <c r="R4">
-        <v>3141.175988822534</v>
+        <v>37569.93678361067</v>
       </c>
       <c r="S4">
-        <v>0.1563495002490251</v>
+        <v>0.1771552881019776</v>
       </c>
       <c r="T4">
-        <v>0.1563495002490251</v>
+        <v>0.1771552881019776</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H5">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I5">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J5">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>2438.695927636882</v>
+        <v>2615.684634037632</v>
       </c>
       <c r="R5">
-        <v>2438.695927636882</v>
+        <v>23541.16170633869</v>
       </c>
       <c r="S5">
-        <v>0.1213841220301333</v>
+        <v>0.1110047458520337</v>
       </c>
       <c r="T5">
-        <v>0.1213841220301333</v>
+        <v>0.1110047458520337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H6">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I6">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J6">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>2453.921692137351</v>
+        <v>2471.573473601403</v>
       </c>
       <c r="R6">
-        <v>2453.921692137351</v>
+        <v>22244.16126241262</v>
       </c>
       <c r="S6">
-        <v>0.1221419721725731</v>
+        <v>0.1048889387205096</v>
       </c>
       <c r="T6">
-        <v>0.1221419721725731</v>
+        <v>0.1048889387205096</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.1119402152858</v>
+        <v>23.24776266666667</v>
       </c>
       <c r="H7">
-        <v>23.1119402152858</v>
+        <v>69.74328800000001</v>
       </c>
       <c r="I7">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="J7">
-        <v>0.3860170396533699</v>
+        <v>0.3389134003957588</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N7">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P7">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q7">
-        <v>2862.747471282925</v>
+        <v>2898.802009703135</v>
       </c>
       <c r="R7">
-        <v>2862.747471282925</v>
+        <v>26089.21808732821</v>
       </c>
       <c r="S7">
-        <v>0.1424909454506635</v>
+        <v>0.1230197158232155</v>
       </c>
       <c r="T7">
-        <v>0.1424909454506635</v>
+        <v>0.1230197158232155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H8">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I8">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J8">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N8">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P8">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q8">
-        <v>1203.008752247426</v>
+        <v>1335.438289152336</v>
       </c>
       <c r="R8">
-        <v>1203.008752247426</v>
+        <v>12018.94460237102</v>
       </c>
       <c r="S8">
-        <v>0.05987878994312364</v>
+        <v>0.05667349418175195</v>
       </c>
       <c r="T8">
-        <v>0.05987878994312364</v>
+        <v>0.05667349418175194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H9">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I9">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J9">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N9">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P9">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q9">
-        <v>1210.519622194821</v>
+        <v>1261.862308685744</v>
       </c>
       <c r="R9">
-        <v>1210.519622194821</v>
+        <v>11356.7607781717</v>
       </c>
       <c r="S9">
-        <v>0.06025263743428279</v>
+        <v>0.05355106768345465</v>
       </c>
       <c r="T9">
-        <v>0.06025263743428279</v>
+        <v>0.05355106768345465</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.4011205929024</v>
+        <v>11.86914966666667</v>
       </c>
       <c r="H10">
-        <v>11.4011205929024</v>
+        <v>35.607449</v>
       </c>
       <c r="I10">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="J10">
-        <v>0.1904222137565284</v>
+        <v>0.1730323012589908</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N10">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P10">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q10">
-        <v>1412.193387621197</v>
+        <v>1479.983919335748</v>
       </c>
       <c r="R10">
-        <v>1412.193387621197</v>
+        <v>13319.85527402173</v>
       </c>
       <c r="S10">
-        <v>0.07029078637912195</v>
+        <v>0.06280773939378421</v>
       </c>
       <c r="T10">
-        <v>0.07029078637912195</v>
+        <v>0.06280773939378421</v>
       </c>
     </row>
   </sheetData>
